--- a/data/trans_orig/P1401-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1401-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1D4E0A7-6DB2-4EE4-A5B0-5A31267EF6C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E34F1D58-2A2D-4C2D-9055-520BEA5EDCA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{17A3D7A7-1A7B-43B3-884E-7B93ACCEE754}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{56B38977-A025-4DBC-BAE6-35F53B294F6F}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -79,22 +79,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>4,36%</t>
+    <t>4,89%</t>
   </si>
   <si>
     <t>3,8%</t>
   </si>
   <si>
-    <t>9,47%</t>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
   </si>
   <si>
     <t>2,35%</t>
   </si>
   <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
   </si>
   <si>
     <t>No</t>
@@ -103,7 +106,7 @@
     <t>99,06%</t>
   </si>
   <si>
-    <t>95,64%</t>
+    <t>95,11%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -112,16 +115,19 @@
     <t>96,2%</t>
   </si>
   <si>
-    <t>90,53%</t>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
   </si>
   <si>
     <t>97,65%</t>
   </si>
   <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
   </si>
   <si>
     <t>100%</t>
@@ -133,787 +139,781 @@
     <t>1,05%</t>
   </si>
   <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
   </si>
   <si>
     <t>1,23%</t>
   </si>
   <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
   </si>
   <si>
     <t>1,14%</t>
   </si>
   <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de cáncer en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
     <t>0,62%</t>
   </si>
   <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
   </si>
   <si>
     <t>99,38%</t>
   </si>
   <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de cáncer en 2023 (Tasa respuesta: 99,76%)</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
   </si>
   <si>
     <t>2,15%</t>
   </si>
   <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
   </si>
   <si>
     <t>97,85%</t>
   </si>
   <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de cáncer en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de cáncer en 2023 (Tasa respuesta: 99,76%)</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
     <t>2,19%</t>
   </si>
   <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
+    <t>2,79%</t>
   </si>
   <si>
     <t>1,89%</t>
   </si>
   <si>
-    <t>2,58%</t>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
   </si>
   <si>
     <t>97,81%</t>
   </si>
   <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
   </si>
   <si>
     <t>98,11%</t>
   </si>
   <si>
-    <t>97,42%</t>
+    <t>98,06%</t>
   </si>
 </sst>
 </file>
@@ -1325,7 +1325,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78987E4C-D821-47F0-9DF4-34624E7A57AD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42308580-3E2A-44B2-A92B-70AAAAA2FA58}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1467,10 +1467,10 @@
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -1479,19 +1479,19 @@
         <v>5343</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>121</v>
@@ -1500,13 +1500,13 @@
         <v>114671</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>95</v>
@@ -1515,13 +1515,13 @@
         <v>107656</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>216</v>
@@ -1530,13 +1530,13 @@
         <v>222327</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1551,13 +1551,13 @@
         <v>115765</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>99</v>
@@ -1566,13 +1566,13 @@
         <v>111905</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>221</v>
@@ -1581,18 +1581,18 @@
         <v>227670</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1604,13 +1604,13 @@
         <v>6192</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -1619,13 +1619,13 @@
         <v>7199</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>13</v>
@@ -1634,19 +1634,19 @@
         <v>13392</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>546</v>
@@ -1655,13 +1655,13 @@
         <v>581512</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>544</v>
@@ -1670,13 +1670,13 @@
         <v>577946</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>1090</v>
@@ -1685,13 +1685,13 @@
         <v>1159457</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1706,13 +1706,13 @@
         <v>587704</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>551</v>
@@ -1721,13 +1721,13 @@
         <v>585145</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>1103</v>
@@ -1736,18 +1736,18 @@
         <v>1172849</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1759,13 +1759,13 @@
         <v>7676</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>18</v>
@@ -1774,13 +1774,13 @@
         <v>19522</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>24</v>
@@ -1789,19 +1789,19 @@
         <v>27198</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>930</v>
@@ -1810,13 +1810,13 @@
         <v>1010271</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>920</v>
@@ -1825,13 +1825,13 @@
         <v>1009451</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1850</v>
@@ -1840,13 +1840,13 @@
         <v>2019722</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1861,13 +1861,13 @@
         <v>1017947</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>938</v>
@@ -1876,13 +1876,13 @@
         <v>1028973</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>1874</v>
@@ -1891,18 +1891,18 @@
         <v>2046920</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1914,13 +1914,13 @@
         <v>6918</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>11</v>
@@ -1929,13 +1929,13 @@
         <v>13403</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>18</v>
@@ -1944,19 +1944,19 @@
         <v>20321</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>682</v>
@@ -1965,13 +1965,13 @@
         <v>750705</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H14" s="7">
         <v>694</v>
@@ -1980,13 +1980,13 @@
         <v>763771</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="M14" s="7">
         <v>1376</v>
@@ -1995,13 +1995,13 @@
         <v>1514476</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2016,13 +2016,13 @@
         <v>757623</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>705</v>
@@ -2031,13 +2031,13 @@
         <v>777174</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>1394</v>
@@ -2046,18 +2046,18 @@
         <v>1534797</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2069,13 +2069,13 @@
         <v>17285</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H16" s="7">
         <v>24</v>
@@ -2084,13 +2084,13 @@
         <v>27244</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M16" s="7">
         <v>40</v>
@@ -2099,19 +2099,19 @@
         <v>44529</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>894</v>
@@ -2120,13 +2120,13 @@
         <v>930454</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H17" s="7">
         <v>979</v>
@@ -2135,13 +2135,13 @@
         <v>1024657</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M17" s="7">
         <v>1873</v>
@@ -2150,13 +2150,13 @@
         <v>1955111</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2171,13 +2171,13 @@
         <v>947739</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>1003</v>
@@ -2186,13 +2186,13 @@
         <v>1051901</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>1913</v>
@@ -2201,13 +2201,13 @@
         <v>1999640</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2224,13 +2224,13 @@
         <v>39165</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H19" s="7">
         <v>64</v>
@@ -2239,13 +2239,13 @@
         <v>71617</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M19" s="7">
         <v>100</v>
@@ -2254,19 +2254,19 @@
         <v>110782</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>3173</v>
@@ -2275,13 +2275,13 @@
         <v>3387614</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H20" s="7">
         <v>3232</v>
@@ -2290,28 +2290,28 @@
         <v>3483481</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M20" s="7">
         <v>6405</v>
       </c>
       <c r="N20" s="7">
-        <v>6871095</v>
+        <v>6871096</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2326,13 +2326,13 @@
         <v>3426779</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
         <v>3296</v>
@@ -2341,33 +2341,33 @@
         <v>3555098</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
         <v>6505</v>
       </c>
       <c r="N21" s="7">
-        <v>6981877</v>
+        <v>6981878</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2388,7 +2388,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55118C47-8A2C-4C87-83CB-A2447A75508F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BA10084-2A32-461D-B0D4-72C2A9D4964B}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2405,7 +2405,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2512,13 +2512,13 @@
         <v>845</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -2527,13 +2527,13 @@
         <v>1883</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -2542,19 +2542,19 @@
         <v>2727</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>112</v>
@@ -2563,13 +2563,13 @@
         <v>115701</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>113</v>
@@ -2578,13 +2578,13 @@
         <v>111477</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M5" s="7">
         <v>225</v>
@@ -2593,13 +2593,13 @@
         <v>227179</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2614,13 +2614,13 @@
         <v>116546</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>115</v>
@@ -2629,13 +2629,13 @@
         <v>113360</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>228</v>
@@ -2644,18 +2644,18 @@
         <v>229906</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2667,13 +2667,13 @@
         <v>5175</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>136</v>
+        <v>52</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H7" s="7">
         <v>13</v>
@@ -2682,13 +2682,13 @@
         <v>14391</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M7" s="7">
         <v>18</v>
@@ -2697,19 +2697,19 @@
         <v>19566</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>534</v>
@@ -2718,13 +2718,13 @@
         <v>553079</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>146</v>
+        <v>62</v>
       </c>
       <c r="H8" s="7">
         <v>538</v>
@@ -2769,13 +2769,13 @@
         <v>558254</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>551</v>
@@ -2784,13 +2784,13 @@
         <v>559479</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>1090</v>
@@ -2799,18 +2799,18 @@
         <v>1117733</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2840,7 +2840,7 @@
         <v>156</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>157</v>
@@ -2852,19 +2852,19 @@
         <v>23737</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="P10" s="7" t="s">
-        <v>159</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>160</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>943</v>
@@ -2873,13 +2873,13 @@
         <v>1014581</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H11" s="7">
         <v>963</v>
@@ -2888,13 +2888,13 @@
         <v>1027026</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="M11" s="7">
         <v>1906</v>
@@ -2903,13 +2903,13 @@
         <v>2041607</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>166</v>
+        <v>65</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>167</v>
+        <v>101</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2924,13 +2924,13 @@
         <v>1022431</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>977</v>
@@ -2939,13 +2939,13 @@
         <v>1042913</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>1928</v>
@@ -2954,18 +2954,18 @@
         <v>2065344</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2977,13 +2977,13 @@
         <v>4653</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -2992,13 +2992,13 @@
         <v>10103</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>37</v>
+        <v>169</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="M13" s="7">
         <v>14</v>
@@ -3007,19 +3007,19 @@
         <v>14757</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>174</v>
+        <v>88</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>106</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>691</v>
@@ -3028,13 +3028,13 @@
         <v>754899</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H14" s="7">
         <v>727</v>
@@ -3043,13 +3043,13 @@
         <v>774908</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>47</v>
+        <v>178</v>
       </c>
       <c r="M14" s="7">
         <v>1418</v>
@@ -3058,13 +3058,13 @@
         <v>1529806</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>181</v>
+        <v>98</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>115</v>
+        <v>179</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3079,13 +3079,13 @@
         <v>759552</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>736</v>
@@ -3094,13 +3094,13 @@
         <v>785011</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>1432</v>
@@ -3109,18 +3109,18 @@
         <v>1544563</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3132,13 +3132,13 @@
         <v>11212</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="H16" s="7">
         <v>25</v>
@@ -3147,13 +3147,13 @@
         <v>28887</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="M16" s="7">
         <v>37</v>
@@ -3162,19 +3162,19 @@
         <v>40098</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>920</v>
@@ -3183,13 +3183,13 @@
         <v>926355</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>65</v>
+        <v>189</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H17" s="7">
         <v>934</v>
@@ -3198,13 +3198,13 @@
         <v>1014892</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>195</v>
+        <v>96</v>
       </c>
       <c r="M17" s="7">
         <v>1854</v>
@@ -3213,13 +3213,13 @@
         <v>1941248</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3234,13 +3234,13 @@
         <v>937567</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>959</v>
@@ -3249,13 +3249,13 @@
         <v>1043779</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>1891</v>
@@ -3264,13 +3264,13 @@
         <v>1981346</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3287,13 +3287,13 @@
         <v>29734</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="H19" s="7">
         <v>63</v>
@@ -3302,13 +3302,13 @@
         <v>71150</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>201</v>
+        <v>110</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="M19" s="7">
         <v>94</v>
@@ -3317,19 +3317,19 @@
         <v>100884</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>3200</v>
@@ -3338,13 +3338,13 @@
         <v>3364616</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H20" s="7">
         <v>3275</v>
@@ -3353,13 +3353,13 @@
         <v>3473392</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>208</v>
+        <v>118</v>
       </c>
       <c r="M20" s="7">
         <v>6475</v>
@@ -3368,13 +3368,13 @@
         <v>6838008</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3389,13 +3389,13 @@
         <v>3394350</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
         <v>3338</v>
@@ -3404,13 +3404,13 @@
         <v>3544542</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
         <v>6569</v>
@@ -3419,18 +3419,18 @@
         <v>6938892</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -3451,7 +3451,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A47AFC51-B465-4DF0-B81F-170B694264F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{189351BB-7240-4097-951B-AE7321E15CDD}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3468,7 +3468,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3575,13 +3575,13 @@
         <v>3679</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>183</v>
+        <v>209</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -3590,13 +3590,13 @@
         <v>3662</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>125</v>
+        <v>212</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="M4" s="7">
         <v>13</v>
@@ -3605,19 +3605,19 @@
         <v>7341</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>113</v>
@@ -3626,13 +3626,13 @@
         <v>98303</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="H5" s="7">
         <v>235</v>
@@ -3641,13 +3641,13 @@
         <v>127071</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M5" s="7">
         <v>348</v>
@@ -3677,13 +3677,13 @@
         <v>101982</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>243</v>
@@ -3692,13 +3692,13 @@
         <v>130733</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>361</v>
@@ -3707,18 +3707,18 @@
         <v>232715</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3733,10 +3733,10 @@
         <v>226</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="H7" s="7">
         <v>28</v>
@@ -3748,10 +3748,10 @@
         <v>228</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="M7" s="7">
         <v>43</v>
@@ -3760,19 +3760,19 @@
         <v>22315</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>597</v>
@@ -3781,13 +3781,13 @@
         <v>541666</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>207</v>
-      </c>
       <c r="G8" s="7" t="s">
-        <v>234</v>
+        <v>82</v>
       </c>
       <c r="H8" s="7">
         <v>967</v>
@@ -3796,13 +3796,13 @@
         <v>578397</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>236</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>237</v>
+        <v>104</v>
       </c>
       <c r="M8" s="7">
         <v>1564</v>
@@ -3811,13 +3811,13 @@
         <v>1120063</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>238</v>
+        <v>146</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>198</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3832,13 +3832,13 @@
         <v>549823</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>995</v>
@@ -3847,13 +3847,13 @@
         <v>592555</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>1607</v>
@@ -3862,18 +3862,18 @@
         <v>1142378</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3885,13 +3885,13 @@
         <v>21756</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>240</v>
+        <v>183</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H10" s="7">
         <v>40</v>
@@ -3900,10 +3900,10 @@
         <v>24369</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>242</v>
@@ -3915,19 +3915,19 @@
         <v>46125</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>246</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>938</v>
@@ -3936,13 +3936,13 @@
         <v>1017492</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>247</v>
+        <v>189</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="H11" s="7">
         <v>1474</v>
@@ -3951,13 +3951,13 @@
         <v>1033963</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="M11" s="7">
         <v>2412</v>
@@ -3966,13 +3966,13 @@
         <v>2051455</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>253</v>
+        <v>220</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3987,13 +3987,13 @@
         <v>1039248</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>1514</v>
@@ -4002,13 +4002,13 @@
         <v>1058332</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>2478</v>
@@ -4017,18 +4017,18 @@
         <v>2097580</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4040,13 +4040,13 @@
         <v>15275</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>241</v>
+        <v>196</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="H13" s="7">
         <v>19</v>
@@ -4055,13 +4055,13 @@
         <v>11980</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="M13" s="7">
         <v>36</v>
@@ -4070,19 +4070,19 @@
         <v>27255</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>158</v>
+        <v>255</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>654</v>
@@ -4091,13 +4091,13 @@
         <v>708650</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>249</v>
+        <v>202</v>
       </c>
       <c r="H14" s="7">
         <v>1023</v>
@@ -4106,13 +4106,13 @@
         <v>859416</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>263</v>
+        <v>237</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="M14" s="7">
         <v>1677</v>
@@ -4121,13 +4121,13 @@
         <v>1568066</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>166</v>
+        <v>263</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4142,13 +4142,13 @@
         <v>723925</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>1042</v>
@@ -4157,13 +4157,13 @@
         <v>871396</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>1713</v>
@@ -4172,18 +4172,18 @@
         <v>1595321</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4195,13 +4195,13 @@
         <v>25108</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>212</v>
+        <v>266</v>
       </c>
       <c r="H16" s="7">
         <v>53</v>
@@ -4210,13 +4210,13 @@
         <v>31909</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>143</v>
+        <v>267</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="M16" s="7">
         <v>85</v>
@@ -4225,19 +4225,19 @@
         <v>57017</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>971</v>
@@ -4246,10 +4246,10 @@
         <v>938308</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>275</v>
@@ -4261,13 +4261,13 @@
         <v>1115035</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>151</v>
+        <v>276</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M17" s="7">
         <v>2478</v>
@@ -4276,13 +4276,13 @@
         <v>2053343</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>82</v>
+        <v>281</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4297,13 +4297,13 @@
         <v>963416</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>1560</v>
@@ -4312,13 +4312,13 @@
         <v>1146944</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>2563</v>
@@ -4327,13 +4327,13 @@
         <v>2110360</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4350,13 +4350,13 @@
         <v>73975</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>281</v>
+        <v>87</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H19" s="7">
         <v>148</v>
@@ -4365,13 +4365,13 @@
         <v>86078</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>283</v>
+        <v>37</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>284</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>232</v>
+        <v>285</v>
       </c>
       <c r="M19" s="7">
         <v>243</v>
@@ -4380,19 +4380,19 @@
         <v>160053</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>231</v>
+        <v>286</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>285</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>3273</v>
@@ -4401,13 +4401,13 @@
         <v>3304419</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>288</v>
+        <v>96</v>
       </c>
       <c r="H20" s="7">
         <v>5206</v>
@@ -4416,10 +4416,10 @@
         <v>3713882</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>290</v>
@@ -4428,16 +4428,16 @@
         <v>8479</v>
       </c>
       <c r="N20" s="7">
-        <v>7018302</v>
+        <v>7018301</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P20" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4452,13 +4452,13 @@
         <v>3378394</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
         <v>5354</v>
@@ -4467,33 +4467,33 @@
         <v>3799960</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
         <v>8722</v>
       </c>
       <c r="N21" s="7">
-        <v>7178355</v>
+        <v>7178354</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1401-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1401-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E34F1D58-2A2D-4C2D-9055-520BEA5EDCA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E28411B-BA1F-45F6-B69E-4B19564A64D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{56B38977-A025-4DBC-BAE6-35F53B294F6F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F75E87DE-77C6-4561-9DDE-334BEF1907A2}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="284">
   <si>
     <t>Población con diagnóstico de cáncer en 2012 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -79,835 +79,811 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>4,89%</t>
+    <t>5,18%</t>
   </si>
   <si>
     <t>3,8%</t>
   </si>
   <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
   </si>
   <si>
     <t>2,35%</t>
   </si>
   <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
     <t>0,91%</t>
   </si>
   <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
   </si>
   <si>
     <t>99,09%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de cáncer en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de cáncer en 2023 (Tasa respuesta: 99,76%)</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
   </si>
   <si>
     <t>2,27%</t>
   </si>
   <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
   </si>
   <si>
     <t>97,73%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de cáncer en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de cáncer en 2023 (Tasa respuesta: 99,76%)</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
   </si>
   <si>
     <t>98,11%</t>
@@ -1325,7 +1301,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42308580-3E2A-44B2-A92B-70AAAAA2FA58}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4153332-5EC6-4410-A671-6291BDDB0572}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1625,7 +1601,7 @@
         <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="M7" s="7">
         <v>13</v>
@@ -1634,13 +1610,13 @@
         <v>13392</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1655,13 +1631,13 @@
         <v>581512</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>544</v>
@@ -1670,13 +1646,13 @@
         <v>577946</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>1090</v>
@@ -1685,13 +1661,13 @@
         <v>1159457</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1747,7 +1723,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1759,13 +1735,13 @@
         <v>7676</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>18</v>
@@ -1774,13 +1750,13 @@
         <v>19522</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>24</v>
@@ -1789,13 +1765,13 @@
         <v>27198</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1810,13 +1786,13 @@
         <v>1010271</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>920</v>
@@ -1825,13 +1801,13 @@
         <v>1009451</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1850</v>
@@ -1840,13 +1816,13 @@
         <v>2019722</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1902,7 +1878,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1914,13 +1890,13 @@
         <v>6918</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>11</v>
@@ -1929,13 +1905,13 @@
         <v>13403</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>18</v>
@@ -1944,13 +1920,13 @@
         <v>20321</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1965,7 +1941,7 @@
         <v>750705</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>78</v>
@@ -2224,13 +2200,13 @@
         <v>39165</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>105</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="H19" s="7">
         <v>64</v>
@@ -2239,13 +2215,13 @@
         <v>71617</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M19" s="7">
         <v>100</v>
@@ -2254,13 +2230,13 @@
         <v>110782</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2275,13 +2251,13 @@
         <v>3387614</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H20" s="7">
         <v>3232</v>
@@ -2290,28 +2266,28 @@
         <v>3483481</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M20" s="7">
         <v>6405</v>
       </c>
       <c r="N20" s="7">
-        <v>6871096</v>
+        <v>6871095</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2353,7 +2329,7 @@
         <v>6505</v>
       </c>
       <c r="N21" s="7">
-        <v>6981878</v>
+        <v>6981877</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2367,7 +2343,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2388,7 +2364,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BA10084-2A32-461D-B0D4-72C2A9D4964B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C9165B6-12C7-4B3B-AFBC-F63C881F5D4E}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2405,7 +2381,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2512,13 +2488,13 @@
         <v>845</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -2527,13 +2503,13 @@
         <v>1883</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -2542,13 +2518,13 @@
         <v>2727</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2563,10 +2539,10 @@
         <v>115701</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>23</v>
@@ -2578,10 +2554,10 @@
         <v>111477</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>23</v>
@@ -2593,13 +2569,13 @@
         <v>227179</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2667,13 +2643,13 @@
         <v>5175</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H7" s="7">
         <v>13</v>
@@ -2682,13 +2658,13 @@
         <v>14391</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M7" s="7">
         <v>18</v>
@@ -2697,13 +2673,13 @@
         <v>19566</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>144</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2718,13 +2694,13 @@
         <v>553079</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H8" s="7">
         <v>538</v>
@@ -2733,13 +2709,13 @@
         <v>545088</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M8" s="7">
         <v>1072</v>
@@ -2748,13 +2724,13 @@
         <v>1098167</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>151</v>
+        <v>62</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2810,7 +2786,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2822,13 +2798,13 @@
         <v>7850</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="H10" s="7">
         <v>14</v>
@@ -2837,13 +2813,13 @@
         <v>15887</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>105</v>
+        <v>152</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="M10" s="7">
         <v>22</v>
@@ -2852,10 +2828,10 @@
         <v>23737</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>158</v>
+        <v>49</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>91</v>
@@ -2873,13 +2849,13 @@
         <v>1014581</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>159</v>
+        <v>85</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="H11" s="7">
         <v>963</v>
@@ -2888,13 +2864,13 @@
         <v>1027026</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>114</v>
+        <v>156</v>
       </c>
       <c r="M11" s="7">
         <v>1906</v>
@@ -2903,13 +2879,13 @@
         <v>2041607</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>101</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>164</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2965,7 +2941,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2977,13 +2953,13 @@
         <v>4653</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>165</v>
+        <v>38</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -2992,13 +2968,13 @@
         <v>10103</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="M13" s="7">
         <v>14</v>
@@ -3007,13 +2983,13 @@
         <v>14757</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>88</v>
+        <v>161</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3028,13 +3004,13 @@
         <v>754899</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>173</v>
+        <v>47</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="H14" s="7">
         <v>727</v>
@@ -3043,13 +3019,13 @@
         <v>774908</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>177</v>
+        <v>144</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="M14" s="7">
         <v>1418</v>
@@ -3058,13 +3034,13 @@
         <v>1529806</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>98</v>
+        <v>168</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3132,13 +3108,13 @@
         <v>11212</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="H16" s="7">
         <v>25</v>
@@ -3147,13 +3123,13 @@
         <v>28887</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>87</v>
+        <v>175</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="M16" s="7">
         <v>37</v>
@@ -3162,13 +3138,13 @@
         <v>40098</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3183,13 +3159,13 @@
         <v>926355</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="H17" s="7">
         <v>934</v>
@@ -3198,13 +3174,13 @@
         <v>1014892</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>96</v>
+        <v>185</v>
       </c>
       <c r="M17" s="7">
         <v>1854</v>
@@ -3213,13 +3189,13 @@
         <v>1941248</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3287,13 +3263,13 @@
         <v>29734</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>39</v>
+        <v>190</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>196</v>
+        <v>35</v>
       </c>
       <c r="H19" s="7">
         <v>63</v>
@@ -3302,13 +3278,13 @@
         <v>71150</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>110</v>
-      </c>
       <c r="L19" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="M19" s="7">
         <v>94</v>
@@ -3317,13 +3293,13 @@
         <v>100884</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>200</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3338,13 +3314,13 @@
         <v>3364616</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>202</v>
+        <v>43</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>49</v>
+        <v>195</v>
       </c>
       <c r="H20" s="7">
         <v>3275</v>
@@ -3353,13 +3329,13 @@
         <v>3473392</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M20" s="7">
         <v>6475</v>
@@ -3368,13 +3344,13 @@
         <v>6838008</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>205</v>
+        <v>147</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3430,7 +3406,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -3451,7 +3427,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{189351BB-7240-4097-951B-AE7321E15CDD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C289188-4F34-4AB9-8E75-3F9D0ABE9339}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3468,7 +3444,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3575,13 +3551,13 @@
         <v>3679</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -3590,13 +3566,13 @@
         <v>3662</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="M4" s="7">
         <v>13</v>
@@ -3605,13 +3581,13 @@
         <v>7341</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>215</v>
+        <v>107</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3626,13 +3602,13 @@
         <v>98303</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="H5" s="7">
         <v>235</v>
@@ -3641,13 +3617,13 @@
         <v>127071</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="M5" s="7">
         <v>348</v>
@@ -3656,13 +3632,13 @@
         <v>225374</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>225</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3730,13 +3706,13 @@
         <v>8157</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>73</v>
+        <v>217</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="H7" s="7">
         <v>28</v>
@@ -3745,13 +3721,13 @@
         <v>14158</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>94</v>
+        <v>220</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="M7" s="7">
         <v>43</v>
@@ -3760,13 +3736,13 @@
         <v>22315</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>138</v>
+        <v>57</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3781,13 +3757,13 @@
         <v>541666</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>82</v>
+        <v>226</v>
       </c>
       <c r="H8" s="7">
         <v>967</v>
@@ -3796,13 +3772,13 @@
         <v>578397</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>104</v>
+        <v>229</v>
       </c>
       <c r="M8" s="7">
         <v>1564</v>
@@ -3811,13 +3787,13 @@
         <v>1120063</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>146</v>
+        <v>65</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3873,7 +3849,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3885,13 +3861,13 @@
         <v>21756</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>183</v>
+        <v>232</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="H10" s="7">
         <v>40</v>
@@ -3900,13 +3876,13 @@
         <v>24369</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="M10" s="7">
         <v>66</v>
@@ -3915,13 +3891,13 @@
         <v>46125</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>91</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3936,13 +3912,13 @@
         <v>1017492</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>189</v>
+        <v>239</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="H11" s="7">
         <v>1474</v>
@@ -3951,13 +3927,13 @@
         <v>1033963</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="M11" s="7">
         <v>2412</v>
@@ -3966,10 +3942,10 @@
         <v>2051455</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>101</v>
@@ -4028,7 +4004,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4040,13 +4016,13 @@
         <v>15275</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>250</v>
+        <v>34</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>196</v>
+        <v>110</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="H13" s="7">
         <v>19</v>
@@ -4055,13 +4031,13 @@
         <v>11980</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="M13" s="7">
         <v>36</v>
@@ -4070,13 +4046,13 @@
         <v>27255</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4091,13 +4067,13 @@
         <v>708650</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>257</v>
+        <v>41</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>202</v>
+        <v>118</v>
       </c>
       <c r="H14" s="7">
         <v>1023</v>
@@ -4106,13 +4082,13 @@
         <v>859416</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="M14" s="7">
         <v>1677</v>
@@ -4121,13 +4097,13 @@
         <v>1568066</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4195,13 +4171,13 @@
         <v>25108</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>265</v>
+        <v>70</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="H16" s="7">
         <v>53</v>
@@ -4210,13 +4186,13 @@
         <v>31909</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="M16" s="7">
         <v>85</v>
@@ -4225,13 +4201,13 @@
         <v>57017</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4246,13 +4222,13 @@
         <v>938308</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>275</v>
+        <v>78</v>
       </c>
       <c r="H17" s="7">
         <v>1507</v>
@@ -4261,13 +4237,13 @@
         <v>1115035</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="M17" s="7">
         <v>2478</v>
@@ -4276,13 +4252,13 @@
         <v>2053343</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4350,13 +4326,13 @@
         <v>73975</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>87</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="H19" s="7">
         <v>148</v>
@@ -4365,13 +4341,13 @@
         <v>86078</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>37</v>
+        <v>276</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>285</v>
+        <v>179</v>
       </c>
       <c r="M19" s="7">
         <v>243</v>
@@ -4383,10 +4359,10 @@
         <v>93</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4401,10 +4377,10 @@
         <v>3304419</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>96</v>
@@ -4416,13 +4392,13 @@
         <v>3713882</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>45</v>
+        <v>281</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>289</v>
+        <v>187</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="M20" s="7">
         <v>8479</v>
@@ -4434,10 +4410,10 @@
         <v>102</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4493,7 +4469,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1401-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1401-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E28411B-BA1F-45F6-B69E-4B19564A64D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6AAA992-47FF-4AC1-B950-93D2E4425878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F75E87DE-77C6-4561-9DDE-334BEF1907A2}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8D8E20FD-1AA2-4FEC-9BBB-ACF44A23C0FD}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="292">
   <si>
     <t>Población con diagnóstico de cáncer en 2012 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -70,7 +70,7 @@
     <t>&lt;2.000hab</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>0,94%</t>
@@ -79,25 +79,22 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>5,18%</t>
+    <t>4,36%</t>
   </si>
   <si>
     <t>3,8%</t>
   </si>
   <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
+    <t>9,47%</t>
   </si>
   <si>
     <t>2,35%</t>
   </si>
   <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,7 +103,7 @@
     <t>99,06%</t>
   </si>
   <si>
-    <t>94,82%</t>
+    <t>95,64%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -115,19 +112,16 @@
     <t>96,2%</t>
   </si>
   <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
+    <t>90,53%</t>
   </si>
   <si>
     <t>97,65%</t>
   </si>
   <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,667 +133,706 @@
     <t>1,05%</t>
   </si>
   <si>
-    <t>0,5%</t>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de cáncer en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de cáncer en 2023 (Tasa respuesta: 99,76%)</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
   </si>
   <si>
     <t>2,11%</t>
   </si>
   <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
   </si>
   <si>
     <t>97,89%</t>
   </si>
   <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de cáncer en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de cáncer en 2023 (Tasa respuesta: 99,76%)</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
+    <t>96,56%</t>
   </si>
   <si>
     <t>98,63%</t>
   </si>
   <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
+    <t>97,78%</t>
   </si>
   <si>
     <t>99,26%</t>
@@ -808,64 +841,52 @@
     <t>98,29%</t>
   </si>
   <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
+    <t>97,48%</t>
   </si>
   <si>
     <t>2,61%</t>
   </si>
   <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
   </si>
   <si>
     <t>2,7%</t>
   </si>
   <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
+    <t>3,36%</t>
   </si>
   <si>
     <t>97,39%</t>
   </si>
   <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
   </si>
   <si>
     <t>97,3%</t>
   </si>
   <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
+    <t>96,64%</t>
   </si>
   <si>
     <t>2,19%</t>
   </si>
   <si>
-    <t>2,79%</t>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
   </si>
   <si>
     <t>2,27%</t>
@@ -874,13 +895,16 @@
     <t>1,89%</t>
   </si>
   <si>
-    <t>1,94%</t>
+    <t>2,58%</t>
   </si>
   <si>
     <t>97,81%</t>
   </si>
   <si>
-    <t>97,21%</t>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
   </si>
   <si>
     <t>97,73%</t>
@@ -889,7 +913,7 @@
     <t>98,11%</t>
   </si>
   <si>
-    <t>98,06%</t>
+    <t>97,42%</t>
   </si>
 </sst>
 </file>
@@ -1301,7 +1325,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4153332-5EC6-4410-A671-6291BDDB0572}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B149707F-4C6E-44FD-88C6-1AE25FCFCF9F}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1443,10 +1467,10 @@
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -1455,19 +1479,19 @@
         <v>5343</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>121</v>
@@ -1476,13 +1500,13 @@
         <v>114671</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>95</v>
@@ -1491,13 +1515,13 @@
         <v>107656</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>25</v>
-      </c>
       <c r="L5" s="7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="M5" s="7">
         <v>216</v>
@@ -1506,13 +1530,13 @@
         <v>222327</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1527,13 +1551,13 @@
         <v>115765</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>99</v>
@@ -1542,13 +1566,13 @@
         <v>111905</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
         <v>221</v>
@@ -1557,18 +1581,18 @@
         <v>227670</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1580,13 +1604,13 @@
         <v>6192</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -1595,13 +1619,13 @@
         <v>7199</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="M7" s="7">
         <v>13</v>
@@ -1610,19 +1634,19 @@
         <v>13392</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>546</v>
@@ -1631,13 +1655,13 @@
         <v>581512</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="H8" s="7">
         <v>544</v>
@@ -1646,10 +1670,10 @@
         <v>577946</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>44</v>
@@ -1682,13 +1706,13 @@
         <v>587704</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>551</v>
@@ -1697,13 +1721,13 @@
         <v>585145</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>1103</v>
@@ -1712,13 +1736,13 @@
         <v>1172849</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1777,7 +1801,7 @@
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>930</v>
@@ -1837,13 +1861,13 @@
         <v>1017947</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>938</v>
@@ -1852,13 +1876,13 @@
         <v>1028973</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
         <v>1874</v>
@@ -1867,13 +1891,13 @@
         <v>2046920</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1908,10 +1932,10 @@
         <v>71</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M13" s="7">
         <v>18</v>
@@ -1920,19 +1944,19 @@
         <v>20321</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
         <v>682</v>
@@ -1941,13 +1965,13 @@
         <v>750705</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="H14" s="7">
         <v>694</v>
@@ -1956,13 +1980,13 @@
         <v>763771</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>81</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="M14" s="7">
         <v>1376</v>
@@ -1971,13 +1995,13 @@
         <v>1514476</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1992,13 +2016,13 @@
         <v>757623</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
         <v>705</v>
@@ -2007,13 +2031,13 @@
         <v>777174</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
         <v>1394</v>
@@ -2022,18 +2046,18 @@
         <v>1534797</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2045,13 +2069,13 @@
         <v>17285</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H16" s="7">
         <v>24</v>
@@ -2060,13 +2084,13 @@
         <v>27244</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M16" s="7">
         <v>40</v>
@@ -2075,19 +2099,19 @@
         <v>44529</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>894</v>
@@ -2096,13 +2120,13 @@
         <v>930454</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H17" s="7">
         <v>979</v>
@@ -2111,13 +2135,13 @@
         <v>1024657</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M17" s="7">
         <v>1873</v>
@@ -2126,13 +2150,13 @@
         <v>1955111</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2147,13 +2171,13 @@
         <v>947739</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
         <v>1003</v>
@@ -2162,13 +2186,13 @@
         <v>1051901</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
         <v>1913</v>
@@ -2177,13 +2201,13 @@
         <v>1999640</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2200,13 +2224,13 @@
         <v>39165</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="H19" s="7">
         <v>64</v>
@@ -2215,13 +2239,13 @@
         <v>71617</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="M19" s="7">
         <v>100</v>
@@ -2230,19 +2254,19 @@
         <v>110782</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="7">
         <v>3173</v>
@@ -2254,7 +2278,7 @@
         <v>45</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>112</v>
@@ -2302,13 +2326,13 @@
         <v>3426779</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H21" s="7">
         <v>3296</v>
@@ -2317,13 +2341,13 @@
         <v>3555098</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M21" s="7">
         <v>6505</v>
@@ -2332,13 +2356,13 @@
         <v>6981877</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2364,7 +2388,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C9165B6-12C7-4B3B-AFBC-F63C881F5D4E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCECF3E4-E781-4DA2-BD87-7CDE19AC0701}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2530,7 +2554,7 @@
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>112</v>
@@ -2545,7 +2569,7 @@
         <v>129</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H5" s="7">
         <v>113</v>
@@ -2560,7 +2584,7 @@
         <v>131</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M5" s="7">
         <v>225</v>
@@ -2590,13 +2614,13 @@
         <v>116546</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>115</v>
@@ -2605,13 +2629,13 @@
         <v>113360</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
         <v>228</v>
@@ -2620,18 +2644,18 @@
         <v>229906</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2646,10 +2670,10 @@
         <v>135</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>50</v>
+        <v>136</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H7" s="7">
         <v>13</v>
@@ -2658,13 +2682,13 @@
         <v>14391</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M7" s="7">
         <v>18</v>
@@ -2673,19 +2697,19 @@
         <v>19566</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>54</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>534</v>
@@ -2694,13 +2718,13 @@
         <v>553079</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>60</v>
+        <v>146</v>
       </c>
       <c r="H8" s="7">
         <v>538</v>
@@ -2709,13 +2733,13 @@
         <v>545088</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M8" s="7">
         <v>1072</v>
@@ -2724,13 +2748,13 @@
         <v>1098167</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>62</v>
+        <v>151</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2745,13 +2769,13 @@
         <v>558254</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>551</v>
@@ -2760,13 +2784,13 @@
         <v>559479</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>1090</v>
@@ -2775,13 +2799,13 @@
         <v>1117733</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2798,13 +2822,13 @@
         <v>7850</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>75</v>
+        <v>153</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="H10" s="7">
         <v>14</v>
@@ -2813,13 +2837,13 @@
         <v>15887</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>152</v>
+        <v>68</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="M10" s="7">
         <v>22</v>
@@ -2828,19 +2852,19 @@
         <v>23737</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>53</v>
+        <v>158</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>49</v>
+        <v>159</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>91</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>943</v>
@@ -2849,13 +2873,13 @@
         <v>1014581</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>85</v>
+        <v>161</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="H11" s="7">
         <v>963</v>
@@ -2864,13 +2888,13 @@
         <v>1027026</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>156</v>
+        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>1906</v>
@@ -2879,13 +2903,13 @@
         <v>2041607</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>63</v>
+        <v>166</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>101</v>
+        <v>167</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>58</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2900,13 +2924,13 @@
         <v>1022431</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>977</v>
@@ -2915,13 +2939,13 @@
         <v>1042913</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
         <v>1928</v>
@@ -2930,13 +2954,13 @@
         <v>2065344</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2953,13 +2977,13 @@
         <v>4653</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>38</v>
+        <v>169</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -2968,13 +2992,13 @@
         <v>10103</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>160</v>
+        <v>37</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="M13" s="7">
         <v>14</v>
@@ -2983,19 +3007,19 @@
         <v>14757</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>163</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
         <v>691</v>
@@ -3004,13 +3028,13 @@
         <v>754899</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>47</v>
+        <v>176</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="H14" s="7">
         <v>727</v>
@@ -3019,13 +3043,13 @@
         <v>774908</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>144</v>
+        <v>180</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>167</v>
+        <v>47</v>
       </c>
       <c r="M14" s="7">
         <v>1418</v>
@@ -3034,13 +3058,13 @@
         <v>1529806</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>169</v>
+        <v>115</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3055,13 +3079,13 @@
         <v>759552</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
         <v>736</v>
@@ -3070,13 +3094,13 @@
         <v>785011</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
         <v>1432</v>
@@ -3085,18 +3109,18 @@
         <v>1544563</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3108,13 +3132,13 @@
         <v>11212</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>173</v>
+        <v>57</v>
       </c>
       <c r="H16" s="7">
         <v>25</v>
@@ -3123,13 +3147,13 @@
         <v>28887</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="M16" s="7">
         <v>37</v>
@@ -3138,19 +3162,19 @@
         <v>40098</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>920</v>
@@ -3159,13 +3183,13 @@
         <v>926355</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>181</v>
+        <v>65</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="H17" s="7">
         <v>934</v>
@@ -3174,13 +3198,13 @@
         <v>1014892</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="M17" s="7">
         <v>1854</v>
@@ -3189,13 +3213,13 @@
         <v>1941248</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3210,13 +3234,13 @@
         <v>937567</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
         <v>959</v>
@@ -3225,13 +3249,13 @@
         <v>1043779</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
         <v>1891</v>
@@ -3240,13 +3264,13 @@
         <v>1981346</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3263,13 +3287,13 @@
         <v>29734</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>190</v>
+        <v>37</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>35</v>
+        <v>200</v>
       </c>
       <c r="H19" s="7">
         <v>63</v>
@@ -3278,13 +3302,13 @@
         <v>71150</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>107</v>
+        <v>201</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="M19" s="7">
         <v>94</v>
@@ -3293,19 +3317,19 @@
         <v>100884</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>140</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="7">
         <v>3200</v>
@@ -3314,13 +3338,13 @@
         <v>3364616</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>43</v>
+        <v>206</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>195</v>
+        <v>47</v>
       </c>
       <c r="H20" s="7">
         <v>3275</v>
@@ -3332,10 +3356,10 @@
         <v>113</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>115</v>
+        <v>208</v>
       </c>
       <c r="M20" s="7">
         <v>6475</v>
@@ -3344,13 +3368,13 @@
         <v>6838008</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>147</v>
+        <v>210</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3365,13 +3389,13 @@
         <v>3394350</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H21" s="7">
         <v>3338</v>
@@ -3380,13 +3404,13 @@
         <v>3544542</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M21" s="7">
         <v>6569</v>
@@ -3395,13 +3419,13 @@
         <v>6938892</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3427,7 +3451,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C289188-4F34-4AB9-8E75-3F9D0ABE9339}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71419DFC-19DF-46CF-8353-F500104D71B9}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3444,7 +3468,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3551,13 +3575,13 @@
         <v>3679</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -3566,13 +3590,13 @@
         <v>3662</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>204</v>
+        <v>125</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="M4" s="7">
         <v>13</v>
@@ -3581,19 +3605,19 @@
         <v>7341</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>107</v>
+        <v>217</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>113</v>
@@ -3602,13 +3626,13 @@
         <v>98303</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="H5" s="7">
         <v>235</v>
@@ -3617,13 +3641,13 @@
         <v>127071</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>213</v>
+        <v>132</v>
       </c>
       <c r="M5" s="7">
         <v>348</v>
@@ -3632,13 +3656,13 @@
         <v>225374</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>115</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3653,13 +3677,13 @@
         <v>101982</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>243</v>
@@ -3668,13 +3692,13 @@
         <v>130733</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
         <v>361</v>
@@ -3683,18 +3707,18 @@
         <v>232715</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3706,13 +3730,13 @@
         <v>8157</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="H7" s="7">
         <v>28</v>
@@ -3721,13 +3745,13 @@
         <v>14158</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="M7" s="7">
         <v>43</v>
@@ -3736,19 +3760,19 @@
         <v>22315</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>57</v>
+        <v>231</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>222</v>
+        <v>189</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>597</v>
@@ -3757,13 +3781,13 @@
         <v>541666</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="H8" s="7">
         <v>967</v>
@@ -3772,13 +3796,13 @@
         <v>578397</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="M8" s="7">
         <v>1564</v>
@@ -3787,13 +3811,13 @@
         <v>1120063</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>65</v>
+        <v>238</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>231</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3808,13 +3832,13 @@
         <v>549823</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>995</v>
@@ -3823,13 +3847,13 @@
         <v>592555</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>1607</v>
@@ -3838,13 +3862,13 @@
         <v>1142378</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3861,13 +3885,13 @@
         <v>21756</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="H10" s="7">
         <v>40</v>
@@ -3876,13 +3900,13 @@
         <v>24369</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="M10" s="7">
         <v>66</v>
@@ -3891,19 +3915,19 @@
         <v>46125</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>203</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>938</v>
@@ -3912,13 +3936,13 @@
         <v>1017492</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="H11" s="7">
         <v>1474</v>
@@ -3927,13 +3951,13 @@
         <v>1033963</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="M11" s="7">
         <v>2412</v>
@@ -3942,13 +3966,13 @@
         <v>2051455</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3963,13 +3987,13 @@
         <v>1039248</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>1514</v>
@@ -3978,13 +4002,13 @@
         <v>1058332</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
         <v>2478</v>
@@ -3993,13 +4017,13 @@
         <v>2097580</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4016,13 +4040,13 @@
         <v>15275</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>34</v>
+        <v>254</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>110</v>
+        <v>241</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="H13" s="7">
         <v>19</v>
@@ -4031,13 +4055,13 @@
         <v>11980</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>222</v>
+        <v>256</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="M13" s="7">
         <v>36</v>
@@ -4046,19 +4070,19 @@
         <v>27255</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>250</v>
+        <v>158</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
         <v>654</v>
@@ -4067,13 +4091,13 @@
         <v>708650</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>41</v>
+        <v>261</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>118</v>
+        <v>249</v>
       </c>
       <c r="H14" s="7">
         <v>1023</v>
@@ -4082,13 +4106,13 @@
         <v>859416</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="M14" s="7">
         <v>1677</v>
@@ -4097,13 +4121,13 @@
         <v>1568066</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>257</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4118,13 +4142,13 @@
         <v>723925</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
         <v>1042</v>
@@ -4133,13 +4157,13 @@
         <v>871396</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
         <v>1713</v>
@@ -4148,18 +4172,18 @@
         <v>1595321</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4171,13 +4195,13 @@
         <v>25108</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>70</v>
+        <v>269</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>259</v>
+        <v>212</v>
       </c>
       <c r="H16" s="7">
         <v>53</v>
@@ -4186,13 +4210,13 @@
         <v>31909</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>260</v>
+        <v>143</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="M16" s="7">
         <v>85</v>
@@ -4201,19 +4225,19 @@
         <v>57017</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>264</v>
+        <v>75</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>971</v>
@@ -4222,13 +4246,13 @@
         <v>938308</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>267</v>
+        <v>219</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>78</v>
+        <v>275</v>
       </c>
       <c r="H17" s="7">
         <v>1507</v>
@@ -4237,13 +4261,13 @@
         <v>1115035</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>268</v>
+        <v>151</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="M17" s="7">
         <v>2478</v>
@@ -4252,13 +4276,13 @@
         <v>2053343</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>273</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4273,13 +4297,13 @@
         <v>963416</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
         <v>1560</v>
@@ -4288,13 +4312,13 @@
         <v>1146944</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
         <v>2563</v>
@@ -4303,13 +4327,13 @@
         <v>2110360</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4326,13 +4350,13 @@
         <v>73975</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>87</v>
+        <v>281</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="H19" s="7">
         <v>148</v>
@@ -4341,13 +4365,13 @@
         <v>86078</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>179</v>
+        <v>232</v>
       </c>
       <c r="M19" s="7">
         <v>243</v>
@@ -4356,19 +4380,19 @@
         <v>160053</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>278</v>
+        <v>231</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>137</v>
+        <v>285</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="7">
         <v>3273</v>
@@ -4377,13 +4401,13 @@
         <v>3304419</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>96</v>
+        <v>288</v>
       </c>
       <c r="H20" s="7">
         <v>5206</v>
@@ -4392,28 +4416,28 @@
         <v>3713882</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>187</v>
+        <v>239</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="M20" s="7">
         <v>8479</v>
       </c>
       <c r="N20" s="7">
-        <v>7018301</v>
+        <v>7018302</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>144</v>
+        <v>291</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>283</v>
+        <v>238</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4428,13 +4452,13 @@
         <v>3378394</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H21" s="7">
         <v>5354</v>
@@ -4443,28 +4467,28 @@
         <v>3799960</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M21" s="7">
         <v>8722</v>
       </c>
       <c r="N21" s="7">
-        <v>7178354</v>
+        <v>7178355</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P1401-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1401-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6AAA992-47FF-4AC1-B950-93D2E4425878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6050A583-28CA-46BA-B5D5-F66E830AFF5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8D8E20FD-1AA2-4FEC-9BBB-ACF44A23C0FD}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{C8B55CF3-B9EE-45B6-A2DB-A3FAF5E3AE81}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="235">
   <si>
     <t>Población con diagnóstico de cáncer en 2012 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -67,853 +67,682 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
   </si>
   <si>
     <t>0,9%</t>
   </si>
   <si>
-    <t>4,9%</t>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
   </si>
   <si>
     <t>99,1%</t>
   </si>
   <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
   </si>
   <si>
     <t>1,14%</t>
   </si>
   <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de cáncer en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
     <t>0,62%</t>
   </si>
   <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
   </si>
   <si>
     <t>99,38%</t>
   </si>
   <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de cáncer en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de cáncer en 2023 (Tasa respuesta: 99,76%)</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
   </si>
   <si>
     <t>3,18%</t>
   </si>
   <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
   </si>
   <si>
     <t>96,82%</t>
   </si>
   <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de cáncer en 2023 (Tasa respuesta: 99,76%)</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
   </si>
 </sst>
 </file>
@@ -1325,8 +1154,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B149707F-4C6E-44FD-88C6-1AE25FCFCF9F}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDBDF261-11AA-4EB6-A6BF-EB722882BB4E}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1443,10 +1272,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D4" s="7">
-        <v>1094</v>
+        <v>7286</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1458,85 +1287,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="I4" s="7">
-        <v>4249</v>
+        <v>11448</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="N4" s="7">
-        <v>5343</v>
+        <v>18734</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>121</v>
+        <v>667</v>
       </c>
       <c r="D5" s="7">
-        <v>114671</v>
+        <v>696183</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>95</v>
+        <v>639</v>
       </c>
       <c r="I5" s="7">
-        <v>107656</v>
+        <v>685602</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>216</v>
+        <v>1306</v>
       </c>
       <c r="N5" s="7">
-        <v>222327</v>
+        <v>1381785</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1545,54 +1374,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>122</v>
+        <v>674</v>
       </c>
       <c r="D6" s="7">
-        <v>115765</v>
+        <v>703469</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>99</v>
+        <v>650</v>
       </c>
       <c r="I6" s="7">
-        <v>111905</v>
+        <v>697050</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>221</v>
+        <v>1324</v>
       </c>
       <c r="N6" s="7">
-        <v>227670</v>
+        <v>1400519</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1601,97 +1430,97 @@
         <v>6</v>
       </c>
       <c r="D7" s="7">
-        <v>6192</v>
+        <v>7676</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="I7" s="7">
-        <v>7199</v>
+        <v>19522</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="N7" s="7">
-        <v>13392</v>
+        <v>27198</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>546</v>
+        <v>930</v>
       </c>
       <c r="D8" s="7">
-        <v>581512</v>
+        <v>1010271</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>544</v>
+        <v>920</v>
       </c>
       <c r="I8" s="7">
-        <v>577946</v>
+        <v>1009451</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>1090</v>
+        <v>1850</v>
       </c>
       <c r="N8" s="7">
-        <v>1159457</v>
+        <v>2019723</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1700,144 +1529,144 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>552</v>
+        <v>936</v>
       </c>
       <c r="D9" s="7">
-        <v>587704</v>
+        <v>1017947</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>938</v>
       </c>
       <c r="I9" s="7">
-        <v>585145</v>
+        <v>1028973</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1103</v>
+        <v>1874</v>
       </c>
       <c r="N9" s="7">
-        <v>1172849</v>
+        <v>2046921</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D10" s="7">
-        <v>7676</v>
+        <v>6918</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
+        <v>11</v>
+      </c>
+      <c r="I10" s="7">
+        <v>13403</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="M10" s="7">
         <v>18</v>
       </c>
-      <c r="I10" s="7">
-        <v>19522</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M10" s="7">
-        <v>24</v>
-      </c>
       <c r="N10" s="7">
-        <v>27198</v>
+        <v>20321</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>930</v>
+        <v>682</v>
       </c>
       <c r="D11" s="7">
-        <v>1010271</v>
+        <v>750705</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H11" s="7">
-        <v>920</v>
+        <v>694</v>
       </c>
       <c r="I11" s="7">
-        <v>1009451</v>
+        <v>763771</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="M11" s="7">
-        <v>1850</v>
+        <v>1376</v>
       </c>
       <c r="N11" s="7">
-        <v>2019722</v>
+        <v>1514476</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>64</v>
@@ -1855,49 +1684,49 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>936</v>
+        <v>689</v>
       </c>
       <c r="D12" s="7">
-        <v>1017947</v>
+        <v>757623</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>938</v>
+        <v>705</v>
       </c>
       <c r="I12" s="7">
-        <v>1028973</v>
+        <v>777174</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1874</v>
+        <v>1394</v>
       </c>
       <c r="N12" s="7">
-        <v>2046920</v>
+        <v>1534797</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1908,100 +1737,100 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D13" s="7">
-        <v>6918</v>
+        <v>17285</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>68</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="7">
+        <v>24</v>
+      </c>
+      <c r="I13" s="7">
+        <v>27244</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="K13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="H13" s="7">
-        <v>11</v>
-      </c>
-      <c r="I13" s="7">
-        <v>13403</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>40</v>
+      </c>
+      <c r="N13" s="7">
+        <v>44529</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="M13" s="7">
-        <v>18</v>
-      </c>
-      <c r="N13" s="7">
-        <v>20321</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>682</v>
+        <v>894</v>
       </c>
       <c r="D14" s="7">
-        <v>750705</v>
+        <v>930454</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="7">
+        <v>979</v>
+      </c>
+      <c r="I14" s="7">
+        <v>1024657</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="L14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M14" s="7">
+        <v>1873</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1955111</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="H14" s="7">
-        <v>694</v>
-      </c>
-      <c r="I14" s="7">
-        <v>763771</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="M14" s="7">
-        <v>1376</v>
-      </c>
-      <c r="N14" s="7">
-        <v>1514476</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2010,153 +1839,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>689</v>
+        <v>910</v>
       </c>
       <c r="D15" s="7">
-        <v>757623</v>
+        <v>947739</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>705</v>
+        <v>1003</v>
       </c>
       <c r="I15" s="7">
-        <v>777174</v>
+        <v>1051901</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1394</v>
+        <v>1913</v>
       </c>
       <c r="N15" s="7">
-        <v>1534797</v>
+        <v>1999640</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="D16" s="7">
-        <v>17285</v>
+        <v>39165</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H16" s="7">
+        <v>64</v>
+      </c>
+      <c r="I16" s="7">
+        <v>71617</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>100</v>
+      </c>
+      <c r="N16" s="7">
+        <v>110782</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="H16" s="7">
-        <v>24</v>
-      </c>
-      <c r="I16" s="7">
-        <v>27244</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="M16" s="7">
-        <v>40</v>
-      </c>
-      <c r="N16" s="7">
-        <v>44529</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>894</v>
+        <v>3173</v>
       </c>
       <c r="D17" s="7">
-        <v>930454</v>
+        <v>3387614</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H17" s="7">
+        <v>3232</v>
+      </c>
+      <c r="I17" s="7">
+        <v>3483481</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>6405</v>
+      </c>
+      <c r="N17" s="7">
+        <v>6871095</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="H17" s="7">
-        <v>979</v>
-      </c>
-      <c r="I17" s="7">
-        <v>1024657</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1873</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1955111</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2165,217 +1994,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>910</v>
+        <v>3209</v>
       </c>
       <c r="D18" s="7">
-        <v>947739</v>
+        <v>3426779</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1003</v>
+        <v>3296</v>
       </c>
       <c r="I18" s="7">
-        <v>1051901</v>
+        <v>3555098</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1913</v>
+        <v>6505</v>
       </c>
       <c r="N18" s="7">
-        <v>1999640</v>
+        <v>6981877</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>36</v>
-      </c>
-      <c r="D19" s="7">
-        <v>39165</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="H19" s="7">
-        <v>64</v>
-      </c>
-      <c r="I19" s="7">
-        <v>71617</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="M19" s="7">
-        <v>100</v>
-      </c>
-      <c r="N19" s="7">
-        <v>110782</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3173</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3387614</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3232</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3483481</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6405</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6871095</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3209</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3426779</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3296</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3555098</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6505</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6981877</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>119</v>
+      <c r="A19" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2388,8 +2061,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCECF3E4-E781-4DA2-BD87-7CDE19AC0701}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C62485DF-DFE8-4739-995A-9D4756C8830A}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2405,7 +2078,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2506,100 +2179,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D4" s="7">
-        <v>845</v>
+        <v>6019</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>121</v>
+        <v>39</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="H4" s="7">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="I4" s="7">
-        <v>1883</v>
+        <v>16273</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="M4" s="7">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="N4" s="7">
-        <v>2727</v>
+        <v>22293</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>125</v>
+        <v>34</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>646</v>
+      </c>
+      <c r="D5" s="7">
+        <v>668781</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H5" s="7">
+        <v>651</v>
+      </c>
+      <c r="I5" s="7">
+        <v>656566</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="M5" s="7">
+        <v>1297</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1325346</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D5" s="7">
-        <v>115701</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="7">
+      <c r="Q5" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="I5" s="7">
-        <v>111477</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" s="7">
-        <v>225</v>
-      </c>
-      <c r="N5" s="7">
-        <v>227179</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2608,153 +2281,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>113</v>
+        <v>652</v>
       </c>
       <c r="D6" s="7">
-        <v>116546</v>
+        <v>674800</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>115</v>
+        <v>666</v>
       </c>
       <c r="I6" s="7">
-        <v>113360</v>
+        <v>672839</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>228</v>
+        <v>1318</v>
       </c>
       <c r="N6" s="7">
-        <v>229906</v>
+        <v>1347639</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D7" s="7">
-        <v>5175</v>
+        <v>7850</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="H7" s="7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I7" s="7">
-        <v>14391</v>
+        <v>15887</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>139</v>
+        <v>51</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="M7" s="7">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="N7" s="7">
-        <v>19566</v>
+        <v>23737</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>534</v>
+        <v>943</v>
       </c>
       <c r="D8" s="7">
-        <v>553079</v>
+        <v>1014581</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="H8" s="7">
-        <v>538</v>
+        <v>963</v>
       </c>
       <c r="I8" s="7">
-        <v>545088</v>
+        <v>1027026</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>149</v>
+        <v>59</v>
       </c>
       <c r="M8" s="7">
-        <v>1072</v>
+        <v>1906</v>
       </c>
       <c r="N8" s="7">
-        <v>1098167</v>
+        <v>2041607</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2763,153 +2436,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>539</v>
+        <v>951</v>
       </c>
       <c r="D9" s="7">
-        <v>558254</v>
+        <v>1022431</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>977</v>
       </c>
       <c r="I9" s="7">
-        <v>559479</v>
+        <v>1042913</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1090</v>
+        <v>1928</v>
       </c>
       <c r="N9" s="7">
-        <v>1117733</v>
+        <v>2065344</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D10" s="7">
-        <v>7850</v>
+        <v>4653</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="H10" s="7">
+        <v>9</v>
+      </c>
+      <c r="I10" s="7">
+        <v>10103</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="M10" s="7">
         <v>14</v>
       </c>
-      <c r="I10" s="7">
-        <v>15887</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="M10" s="7">
-        <v>22</v>
-      </c>
       <c r="N10" s="7">
-        <v>23737</v>
+        <v>14757</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>160</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>943</v>
+        <v>691</v>
       </c>
       <c r="D11" s="7">
-        <v>1014581</v>
+        <v>754899</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="H11" s="7">
-        <v>963</v>
+        <v>727</v>
       </c>
       <c r="I11" s="7">
-        <v>1027026</v>
+        <v>774908</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="M11" s="7">
-        <v>1906</v>
+        <v>1418</v>
       </c>
       <c r="N11" s="7">
-        <v>2041607</v>
+        <v>1529806</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>167</v>
+        <v>94</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2918,49 +2591,49 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>951</v>
+        <v>696</v>
       </c>
       <c r="D12" s="7">
-        <v>1022431</v>
+        <v>759552</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>977</v>
+        <v>736</v>
       </c>
       <c r="I12" s="7">
-        <v>1042913</v>
+        <v>785011</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1928</v>
+        <v>1432</v>
       </c>
       <c r="N12" s="7">
-        <v>2065344</v>
+        <v>1544563</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2971,100 +2644,100 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D13" s="7">
-        <v>4653</v>
+        <v>11212</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>171</v>
+        <v>40</v>
       </c>
       <c r="H13" s="7">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="I13" s="7">
-        <v>10103</v>
+        <v>28887</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="M13" s="7">
         <v>37</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="M13" s="7">
-        <v>14</v>
-      </c>
       <c r="N13" s="7">
-        <v>14757</v>
+        <v>40098</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>106</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>691</v>
+        <v>920</v>
       </c>
       <c r="D14" s="7">
-        <v>754899</v>
+        <v>926355</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>177</v>
+        <v>48</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="H14" s="7">
-        <v>727</v>
+        <v>934</v>
       </c>
       <c r="I14" s="7">
-        <v>774908</v>
+        <v>1014892</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>47</v>
+        <v>158</v>
       </c>
       <c r="M14" s="7">
-        <v>1418</v>
+        <v>1854</v>
       </c>
       <c r="N14" s="7">
-        <v>1529806</v>
+        <v>1941248</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>115</v>
+        <v>160</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3073,153 +2746,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>696</v>
+        <v>932</v>
       </c>
       <c r="D15" s="7">
-        <v>759552</v>
+        <v>937567</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>736</v>
+        <v>959</v>
       </c>
       <c r="I15" s="7">
-        <v>785011</v>
+        <v>1043779</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1432</v>
+        <v>1891</v>
       </c>
       <c r="N15" s="7">
-        <v>1544563</v>
+        <v>1981346</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D16" s="7">
-        <v>11212</v>
+        <v>29734</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>184</v>
+        <v>134</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>57</v>
+        <v>163</v>
       </c>
       <c r="H16" s="7">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="I16" s="7">
-        <v>28887</v>
+        <v>71150</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>185</v>
+        <v>83</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="M16" s="7">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="N16" s="7">
-        <v>40098</v>
+        <v>100884</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>188</v>
+        <v>103</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>189</v>
+        <v>146</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>920</v>
+        <v>3200</v>
       </c>
       <c r="D17" s="7">
-        <v>926355</v>
+        <v>3364616</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>65</v>
+        <v>168</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>192</v>
+        <v>143</v>
       </c>
       <c r="H17" s="7">
-        <v>934</v>
+        <v>3275</v>
       </c>
       <c r="I17" s="7">
-        <v>1014892</v>
+        <v>3473392</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>193</v>
+        <v>92</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="M17" s="7">
-        <v>1854</v>
+        <v>6475</v>
       </c>
       <c r="N17" s="7">
-        <v>1941248</v>
+        <v>6838008</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>196</v>
+        <v>111</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>198</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3228,217 +2901,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>932</v>
+        <v>3231</v>
       </c>
       <c r="D18" s="7">
-        <v>937567</v>
+        <v>3394350</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>959</v>
+        <v>3338</v>
       </c>
       <c r="I18" s="7">
-        <v>1043779</v>
+        <v>3544542</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1891</v>
+        <v>6569</v>
       </c>
       <c r="N18" s="7">
-        <v>1981346</v>
+        <v>6938892</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>31</v>
-      </c>
-      <c r="D19" s="7">
-        <v>29734</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="H19" s="7">
-        <v>63</v>
-      </c>
-      <c r="I19" s="7">
-        <v>71150</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="M19" s="7">
-        <v>94</v>
-      </c>
-      <c r="N19" s="7">
-        <v>100884</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3200</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3364616</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3275</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3473392</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6475</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6838008</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3231</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3394350</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3338</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3544542</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6569</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6938892</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>119</v>
+      <c r="A19" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3451,8 +2968,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71419DFC-19DF-46CF-8353-F500104D71B9}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E986F5B-20C5-44CE-89EE-C5650D9C68E4}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3468,7 +2985,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>211</v>
+        <v>172</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3569,100 +3086,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D4" s="7">
-        <v>3679</v>
+        <v>11313</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>212</v>
+        <v>166</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>213</v>
+        <v>174</v>
       </c>
       <c r="H4" s="7">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="I4" s="7">
-        <v>3662</v>
+        <v>16262</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>214</v>
+        <v>175</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>125</v>
+        <v>176</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>215</v>
+        <v>177</v>
       </c>
       <c r="M4" s="7">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="N4" s="7">
-        <v>7341</v>
+        <v>27575</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>216</v>
+        <v>101</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>217</v>
+        <v>82</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>218</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>113</v>
+        <v>710</v>
       </c>
       <c r="D5" s="7">
-        <v>98303</v>
+        <v>624128</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>219</v>
+        <v>171</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>220</v>
+        <v>179</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="H5" s="7">
-        <v>235</v>
+        <v>1202</v>
       </c>
       <c r="I5" s="7">
-        <v>127071</v>
+        <v>659108</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>221</v>
+        <v>181</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>222</v>
+        <v>182</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>132</v>
+        <v>183</v>
       </c>
       <c r="M5" s="7">
-        <v>348</v>
+        <v>1912</v>
       </c>
       <c r="N5" s="7">
-        <v>225374</v>
+        <v>1283236</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>223</v>
+        <v>107</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>224</v>
+        <v>184</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>225</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3671,153 +3188,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>118</v>
+        <v>730</v>
       </c>
       <c r="D6" s="7">
-        <v>101982</v>
+        <v>635441</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>243</v>
+        <v>1238</v>
       </c>
       <c r="I6" s="7">
-        <v>130733</v>
+        <v>675370</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>361</v>
+        <v>1968</v>
       </c>
       <c r="N6" s="7">
-        <v>232715</v>
+        <v>1310811</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D7" s="7">
-        <v>8157</v>
+        <v>20272</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>226</v>
+        <v>185</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>227</v>
+        <v>186</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="H7" s="7">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="I7" s="7">
-        <v>14158</v>
+        <v>22305</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>228</v>
+        <v>188</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>229</v>
+        <v>189</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="M7" s="7">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="N7" s="7">
-        <v>22315</v>
+        <v>42577</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>231</v>
+        <v>191</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>189</v>
+        <v>17</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>232</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>597</v>
+        <v>938</v>
       </c>
       <c r="D8" s="7">
-        <v>541666</v>
+        <v>1172592</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>233</v>
+        <v>193</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="H8" s="7">
-        <v>967</v>
+        <v>1474</v>
       </c>
       <c r="I8" s="7">
-        <v>578397</v>
+        <v>934746</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>237</v>
+        <v>198</v>
       </c>
       <c r="M8" s="7">
-        <v>1564</v>
+        <v>2412</v>
       </c>
       <c r="N8" s="7">
-        <v>1120063</v>
+        <v>2107338</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>239</v>
+        <v>200</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>198</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3826,153 +3343,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>612</v>
+        <v>964</v>
       </c>
       <c r="D9" s="7">
-        <v>549823</v>
+        <v>1192864</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>995</v>
+        <v>1514</v>
       </c>
       <c r="I9" s="7">
-        <v>592555</v>
+        <v>957051</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1607</v>
+        <v>2478</v>
       </c>
       <c r="N9" s="7">
-        <v>1142378</v>
+        <v>2149915</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D10" s="7">
-        <v>21756</v>
+        <v>14129</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>240</v>
+        <v>151</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>241</v>
+        <v>201</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>242</v>
+        <v>202</v>
       </c>
       <c r="H10" s="7">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="I10" s="7">
-        <v>24369</v>
+        <v>10914</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>243</v>
+        <v>203</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>244</v>
+        <v>204</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>242</v>
+        <v>205</v>
       </c>
       <c r="M10" s="7">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="N10" s="7">
-        <v>46125</v>
+        <v>25043</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>245</v>
+        <v>84</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>938</v>
+        <v>654</v>
       </c>
       <c r="D11" s="7">
-        <v>1017492</v>
+        <v>686052</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>247</v>
+        <v>159</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>249</v>
+        <v>208</v>
       </c>
       <c r="H11" s="7">
-        <v>1474</v>
+        <v>1023</v>
       </c>
       <c r="I11" s="7">
-        <v>1033963</v>
+        <v>919773</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>250</v>
+        <v>209</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>248</v>
+        <v>210</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>251</v>
+        <v>211</v>
       </c>
       <c r="M11" s="7">
-        <v>2412</v>
+        <v>1677</v>
       </c>
       <c r="N11" s="7">
-        <v>2051455</v>
+        <v>1605825</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>252</v>
+        <v>94</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>253</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>79</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3981,49 +3498,49 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>964</v>
+        <v>671</v>
       </c>
       <c r="D12" s="7">
-        <v>1039248</v>
+        <v>700181</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1514</v>
+        <v>1042</v>
       </c>
       <c r="I12" s="7">
-        <v>1058332</v>
+        <v>930687</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2478</v>
+        <v>1713</v>
       </c>
       <c r="N12" s="7">
-        <v>2097580</v>
+        <v>1630868</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4034,100 +3551,100 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D13" s="7">
-        <v>15275</v>
+        <v>23164</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>254</v>
+        <v>85</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>241</v>
+        <v>121</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>255</v>
+        <v>213</v>
       </c>
       <c r="H13" s="7">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="I13" s="7">
-        <v>11980</v>
+        <v>28458</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>256</v>
+        <v>214</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>257</v>
+        <v>215</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>258</v>
+        <v>216</v>
       </c>
       <c r="M13" s="7">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="N13" s="7">
-        <v>27255</v>
+        <v>51622</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>259</v>
+        <v>217</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>158</v>
+        <v>40</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>260</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>654</v>
+        <v>971</v>
       </c>
       <c r="D14" s="7">
-        <v>708650</v>
+        <v>901808</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>261</v>
+        <v>93</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>262</v>
+        <v>219</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>249</v>
+        <v>128</v>
       </c>
       <c r="H14" s="7">
-        <v>1023</v>
+        <v>1507</v>
       </c>
       <c r="I14" s="7">
-        <v>859416</v>
+        <v>1063456</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>263</v>
+        <v>220</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>264</v>
+        <v>221</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>265</v>
+        <v>222</v>
       </c>
       <c r="M14" s="7">
-        <v>1677</v>
+        <v>2478</v>
       </c>
       <c r="N14" s="7">
-        <v>1568066</v>
+        <v>1965264</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>266</v>
+        <v>223</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>267</v>
+        <v>224</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>166</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4136,153 +3653,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>671</v>
+        <v>1003</v>
       </c>
       <c r="D15" s="7">
-        <v>723925</v>
+        <v>924972</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1042</v>
+        <v>1560</v>
       </c>
       <c r="I15" s="7">
-        <v>871396</v>
+        <v>1091914</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1713</v>
+        <v>2563</v>
       </c>
       <c r="N15" s="7">
-        <v>1595321</v>
+        <v>2016886</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="D16" s="7">
-        <v>25108</v>
+        <v>68877</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>268</v>
+        <v>205</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>269</v>
+        <v>103</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="H16" s="7">
-        <v>53</v>
+        <v>148</v>
       </c>
       <c r="I16" s="7">
-        <v>31909</v>
+        <v>77940</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>143</v>
+        <v>226</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>270</v>
+        <v>121</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>271</v>
+        <v>227</v>
       </c>
       <c r="M16" s="7">
-        <v>85</v>
+        <v>243</v>
       </c>
       <c r="N16" s="7">
-        <v>57017</v>
+        <v>146817</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>272</v>
+        <v>228</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>75</v>
+        <v>229</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>273</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>971</v>
+        <v>3273</v>
       </c>
       <c r="D17" s="7">
-        <v>938308</v>
+        <v>3384581</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>274</v>
+        <v>210</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>275</v>
+        <v>111</v>
       </c>
       <c r="H17" s="7">
-        <v>1507</v>
+        <v>5206</v>
       </c>
       <c r="I17" s="7">
-        <v>1115035</v>
+        <v>3577082</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>151</v>
+        <v>231</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>276</v>
+        <v>232</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>277</v>
+        <v>128</v>
       </c>
       <c r="M17" s="7">
-        <v>2478</v>
+        <v>8479</v>
       </c>
       <c r="N17" s="7">
-        <v>2053343</v>
+        <v>6961663</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>278</v>
+        <v>233</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>279</v>
+        <v>109</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>82</v>
+        <v>234</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4291,217 +3808,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1003</v>
+        <v>3368</v>
       </c>
       <c r="D18" s="7">
-        <v>963416</v>
+        <v>3453458</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1560</v>
+        <v>5354</v>
       </c>
       <c r="I18" s="7">
-        <v>1146944</v>
+        <v>3655022</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2563</v>
+        <v>8722</v>
       </c>
       <c r="N18" s="7">
-        <v>2110360</v>
+        <v>7108480</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>95</v>
-      </c>
-      <c r="D19" s="7">
-        <v>73975</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="H19" s="7">
-        <v>148</v>
-      </c>
-      <c r="I19" s="7">
-        <v>86078</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="M19" s="7">
-        <v>243</v>
-      </c>
-      <c r="N19" s="7">
-        <v>160053</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3273</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3304419</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="H20" s="7">
-        <v>5206</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3713882</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="M20" s="7">
-        <v>8479</v>
-      </c>
-      <c r="N20" s="7">
-        <v>7018302</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3368</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3378394</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5354</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3799960</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8722</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7178355</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>119</v>
+      <c r="A19" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
